--- a/usaemails.xlsx
+++ b/usaemails.xlsx
@@ -11384,8 +11384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2066"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B531" sqref="B531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
